--- a/data/pca/factorExposure/factorExposure_2016-05-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-05-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0105742743240707</v>
+        <v>-0.01325336165831098</v>
       </c>
       <c r="C2">
-        <v>-0.05285083378970355</v>
+        <v>0.03811934064044467</v>
       </c>
       <c r="D2">
-        <v>-0.04233372666090147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05609061710552277</v>
+      </c>
+      <c r="E2">
+        <v>0.08625827182408208</v>
+      </c>
+      <c r="F2">
+        <v>-0.08503688183308616</v>
+      </c>
+      <c r="G2">
+        <v>0.003307826752697128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03964060287377788</v>
+        <v>-0.02480216175933016</v>
       </c>
       <c r="C3">
-        <v>-0.1207907780638067</v>
+        <v>0.07029353239344215</v>
       </c>
       <c r="D3">
-        <v>-0.09551070593667181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.0747992850625796</v>
+      </c>
+      <c r="E3">
+        <v>0.06709624384728186</v>
+      </c>
+      <c r="F3">
+        <v>0.0230872297630464</v>
+      </c>
+      <c r="G3">
+        <v>0.04360692690736936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05851357897257329</v>
+        <v>-0.05690152500304677</v>
       </c>
       <c r="C4">
-        <v>-0.0622321757684938</v>
+        <v>0.06526736008284155</v>
       </c>
       <c r="D4">
-        <v>-0.02877645979572789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05091040364817676</v>
+      </c>
+      <c r="E4">
+        <v>0.08262060651498174</v>
+      </c>
+      <c r="F4">
+        <v>-0.06085211178677847</v>
+      </c>
+      <c r="G4">
+        <v>0.07698124668030702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03938758638952638</v>
+        <v>-0.0348241528150582</v>
       </c>
       <c r="C6">
-        <v>-0.03788417495790716</v>
+        <v>0.02930831800607962</v>
       </c>
       <c r="D6">
-        <v>-0.033663580357645</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05908433065946285</v>
+      </c>
+      <c r="E6">
+        <v>0.0865009536246788</v>
+      </c>
+      <c r="F6">
+        <v>-0.04692057973150229</v>
+      </c>
+      <c r="G6">
+        <v>0.0608447119123136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.021319466003556</v>
+        <v>-0.0171549448717704</v>
       </c>
       <c r="C7">
-        <v>-0.04734389665794059</v>
+        <v>0.04007826617139283</v>
       </c>
       <c r="D7">
-        <v>0.009838520858898449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03262864356160131</v>
+      </c>
+      <c r="E7">
+        <v>0.06012342380698331</v>
+      </c>
+      <c r="F7">
+        <v>-0.09296769050916104</v>
+      </c>
+      <c r="G7">
+        <v>0.06919271353200526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.005426991594773311</v>
+        <v>-0.002370487425197776</v>
       </c>
       <c r="C8">
-        <v>-0.03612599098433553</v>
+        <v>0.03219263193051634</v>
       </c>
       <c r="D8">
-        <v>-0.02592746224382025</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03060519347547931</v>
+      </c>
+      <c r="E8">
+        <v>0.05798267616523664</v>
+      </c>
+      <c r="F8">
+        <v>-0.03161312847886179</v>
+      </c>
+      <c r="G8">
+        <v>0.03087828815290606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03293740470845035</v>
+        <v>-0.03649238643016556</v>
       </c>
       <c r="C9">
-        <v>-0.04964182564546154</v>
+        <v>0.05245818493563122</v>
       </c>
       <c r="D9">
-        <v>-0.0122847451869469</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0360172065630555</v>
+      </c>
+      <c r="E9">
+        <v>0.06981829891273274</v>
+      </c>
+      <c r="F9">
+        <v>-0.07267187158524567</v>
+      </c>
+      <c r="G9">
+        <v>0.0671741165666942</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08242589788887168</v>
+        <v>-0.1056675114434785</v>
       </c>
       <c r="C10">
-        <v>0.1866441409948211</v>
+        <v>-0.1944323483310236</v>
       </c>
       <c r="D10">
-        <v>0.005573948168441869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01239220074873175</v>
+      </c>
+      <c r="E10">
+        <v>0.04193649951402033</v>
+      </c>
+      <c r="F10">
+        <v>-0.02517191215601365</v>
+      </c>
+      <c r="G10">
+        <v>0.02635001005117977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04045683022792883</v>
+        <v>-0.03564300068711141</v>
       </c>
       <c r="C11">
-        <v>-0.05338957338435557</v>
+        <v>0.04930017134559837</v>
       </c>
       <c r="D11">
-        <v>-0.008727801355029593</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03003450376223609</v>
+      </c>
+      <c r="E11">
+        <v>0.0236332092649705</v>
+      </c>
+      <c r="F11">
+        <v>-0.05613094179516811</v>
+      </c>
+      <c r="G11">
+        <v>0.05309514413658487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04227358610257476</v>
+        <v>-0.03760212099113885</v>
       </c>
       <c r="C12">
-        <v>-0.04942663334475882</v>
+        <v>0.0467539318216128</v>
       </c>
       <c r="D12">
-        <v>-0.0004024978396498827</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02381794870464116</v>
+      </c>
+      <c r="E12">
+        <v>0.03188895902458738</v>
+      </c>
+      <c r="F12">
+        <v>-0.05809827211386108</v>
+      </c>
+      <c r="G12">
+        <v>0.04992782868753573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01284870790395321</v>
+        <v>-0.01003822015569387</v>
       </c>
       <c r="C13">
-        <v>-0.05579557187121325</v>
+        <v>0.04376733150685565</v>
       </c>
       <c r="D13">
-        <v>-0.008370388540876073</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04307963024007925</v>
+      </c>
+      <c r="E13">
+        <v>0.09501949282528072</v>
+      </c>
+      <c r="F13">
+        <v>-0.08273432683996687</v>
+      </c>
+      <c r="G13">
+        <v>0.0758084539970194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006825573287019754</v>
+        <v>-0.00370610918140978</v>
       </c>
       <c r="C14">
-        <v>-0.0427370065429724</v>
+        <v>0.03416751732874963</v>
       </c>
       <c r="D14">
-        <v>0.01357254890855286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02206957417251797</v>
+      </c>
+      <c r="E14">
+        <v>0.0480975854428437</v>
+      </c>
+      <c r="F14">
+        <v>-0.09299133891096314</v>
+      </c>
+      <c r="G14">
+        <v>0.05468637853200281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0002725710562102171</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.00513560617177367</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007176862847534654</v>
+      </c>
+      <c r="E15">
+        <v>0.004013183612496431</v>
+      </c>
+      <c r="F15">
+        <v>-0.006306514168207439</v>
+      </c>
+      <c r="G15">
+        <v>0.00443625163958708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03753212800559679</v>
+        <v>-0.03363460030265879</v>
       </c>
       <c r="C16">
-        <v>-0.0502639236487667</v>
+        <v>0.04573658979238796</v>
       </c>
       <c r="D16">
-        <v>-0.004736198553775323</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.0232360590445513</v>
+      </c>
+      <c r="E16">
+        <v>0.03822234803812577</v>
+      </c>
+      <c r="F16">
+        <v>-0.06257685942181195</v>
+      </c>
+      <c r="G16">
+        <v>0.03901620896206344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02096921375600999</v>
+        <v>-0.01570499457074121</v>
       </c>
       <c r="C19">
-        <v>-0.06519738825993365</v>
+        <v>0.04676869034807527</v>
       </c>
       <c r="D19">
-        <v>-0.09115900330680533</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08855138227601293</v>
+      </c>
+      <c r="E19">
+        <v>0.1101397261669507</v>
+      </c>
+      <c r="F19">
+        <v>-0.07844140672045485</v>
+      </c>
+      <c r="G19">
+        <v>0.02446419877127804</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01582257427156378</v>
+        <v>-0.0124384959957304</v>
       </c>
       <c r="C20">
-        <v>-0.04915066738619011</v>
+        <v>0.03959265075793168</v>
       </c>
       <c r="D20">
-        <v>-0.009380391466008033</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03066815725485672</v>
+      </c>
+      <c r="E20">
+        <v>0.07550981707282152</v>
+      </c>
+      <c r="F20">
+        <v>-0.06859172225708618</v>
+      </c>
+      <c r="G20">
+        <v>0.05032986997172847</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.009291439114053363</v>
+        <v>-0.008521517606202187</v>
       </c>
       <c r="C21">
-        <v>-0.05155469224775187</v>
+        <v>0.04251007298222224</v>
       </c>
       <c r="D21">
-        <v>-0.03643053039369537</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.05669279653100913</v>
+      </c>
+      <c r="E21">
+        <v>0.1152192013530103</v>
+      </c>
+      <c r="F21">
+        <v>-0.1094093869425213</v>
+      </c>
+      <c r="G21">
+        <v>0.07753032094501813</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0009781662673220563</v>
+        <v>-0.002279658205097684</v>
       </c>
       <c r="C22">
-        <v>-0.0006177267759636352</v>
+        <v>0.02652769034190039</v>
       </c>
       <c r="D22">
-        <v>-0.001980934107007775</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04222465922228596</v>
+      </c>
+      <c r="E22">
+        <v>0.03978125472067436</v>
+      </c>
+      <c r="F22">
+        <v>0.0001101845426392939</v>
+      </c>
+      <c r="G22">
+        <v>0.05264859649823835</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0009838046884850812</v>
+        <v>-0.002357608655104201</v>
       </c>
       <c r="C23">
-        <v>-0.0006179167250989575</v>
+        <v>0.0266802494222939</v>
       </c>
       <c r="D23">
-        <v>-0.001986979077865852</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04181734092595951</v>
+      </c>
+      <c r="E23">
+        <v>0.04003935455655094</v>
+      </c>
+      <c r="F23">
+        <v>0.0003749063133876973</v>
+      </c>
+      <c r="G23">
+        <v>0.05271735467894097</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03444456919219197</v>
+        <v>-0.03355770934681256</v>
       </c>
       <c r="C24">
-        <v>-0.05151238540292422</v>
+        <v>0.0532073470006779</v>
       </c>
       <c r="D24">
-        <v>-0.005224551707165685</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02342574116171109</v>
+      </c>
+      <c r="E24">
+        <v>0.03897973843315627</v>
+      </c>
+      <c r="F24">
+        <v>-0.06573670815051544</v>
+      </c>
+      <c r="G24">
+        <v>0.04978016878498046</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04739819251936573</v>
+        <v>-0.04279233124350747</v>
       </c>
       <c r="C25">
-        <v>-0.06310168992179699</v>
+        <v>0.05747344007257737</v>
       </c>
       <c r="D25">
-        <v>0.00487516873707048</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02268810483843427</v>
+      </c>
+      <c r="E25">
+        <v>0.02912742221972059</v>
+      </c>
+      <c r="F25">
+        <v>-0.06044384208058499</v>
+      </c>
+      <c r="G25">
+        <v>0.06537648862665663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01536900210808778</v>
+        <v>-0.01424506545306957</v>
       </c>
       <c r="C26">
-        <v>-0.01856395823766962</v>
+        <v>0.0182282938760121</v>
       </c>
       <c r="D26">
-        <v>-0.0006837238023511434</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02213111425983699</v>
+      </c>
+      <c r="E26">
+        <v>0.04853685882715301</v>
+      </c>
+      <c r="F26">
+        <v>-0.06886716908809833</v>
+      </c>
+      <c r="G26">
+        <v>0.0276895221820517</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09671378141154101</v>
+        <v>-0.1406895255735091</v>
       </c>
       <c r="C28">
-        <v>0.2411956890766542</v>
+        <v>-0.2479527842985745</v>
       </c>
       <c r="D28">
-        <v>0.005050844180166575</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02716350878274423</v>
+      </c>
+      <c r="E28">
+        <v>0.05730604425368573</v>
+      </c>
+      <c r="F28">
+        <v>-0.04110329912153921</v>
+      </c>
+      <c r="G28">
+        <v>0.04638471346702992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.006136394126388671</v>
+        <v>-0.004503771519878896</v>
       </c>
       <c r="C29">
-        <v>-0.03461117920964657</v>
+        <v>0.03040281209871226</v>
       </c>
       <c r="D29">
-        <v>0.01759675082776202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01594128446746683</v>
+      </c>
+      <c r="E29">
+        <v>0.04649302310349016</v>
+      </c>
+      <c r="F29">
+        <v>-0.08192138223557961</v>
+      </c>
+      <c r="G29">
+        <v>0.06336221601701766</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.0438836612442042</v>
+        <v>-0.03957761324778281</v>
       </c>
       <c r="C30">
-        <v>-0.05554451600570504</v>
+        <v>0.05803962114010217</v>
       </c>
       <c r="D30">
-        <v>-0.06600354946950547</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09682962669397881</v>
+      </c>
+      <c r="E30">
+        <v>0.07550654384041713</v>
+      </c>
+      <c r="F30">
+        <v>-0.08543442388273124</v>
+      </c>
+      <c r="G30">
+        <v>0.03969705443744951</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05758482009806625</v>
+        <v>-0.05624154597753139</v>
       </c>
       <c r="C31">
-        <v>-0.04654698659691708</v>
+        <v>0.06211696819646861</v>
       </c>
       <c r="D31">
-        <v>0.03059640310957043</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01559483674338915</v>
+      </c>
+      <c r="E31">
+        <v>0.06514087632524444</v>
+      </c>
+      <c r="F31">
+        <v>-0.04538636087866867</v>
+      </c>
+      <c r="G31">
+        <v>0.07866432046119469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001239094143525225</v>
+        <v>-0.004918383044465462</v>
       </c>
       <c r="C32">
-        <v>-0.04112062631792681</v>
+        <v>0.03387219840731232</v>
       </c>
       <c r="D32">
-        <v>-0.04759308946458214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05328915306726579</v>
+      </c>
+      <c r="E32">
+        <v>0.05712190307566305</v>
+      </c>
+      <c r="F32">
+        <v>-0.07167543321656487</v>
+      </c>
+      <c r="G32">
+        <v>0.03232337993838198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02929508958394274</v>
+        <v>-0.02451233126561598</v>
       </c>
       <c r="C33">
-        <v>-0.0642109345646939</v>
+        <v>0.05591515975055978</v>
       </c>
       <c r="D33">
-        <v>-0.03936919785274053</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.0699191160410996</v>
+      </c>
+      <c r="E33">
+        <v>0.08826044007829614</v>
+      </c>
+      <c r="F33">
+        <v>-0.09616753935155041</v>
+      </c>
+      <c r="G33">
+        <v>0.07737670739664664</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04439045370307167</v>
+        <v>-0.03980526288087294</v>
       </c>
       <c r="C34">
-        <v>-0.06810765226528011</v>
+        <v>0.0654403203712605</v>
       </c>
       <c r="D34">
-        <v>-0.01080123568501426</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03589274773783997</v>
+      </c>
+      <c r="E34">
+        <v>0.01152711453300744</v>
+      </c>
+      <c r="F34">
+        <v>-0.06790749881523395</v>
+      </c>
+      <c r="G34">
+        <v>0.05100635660767584</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01603628718375257</v>
+        <v>-0.01384281025488193</v>
       </c>
       <c r="C36">
-        <v>-0.01762290752133935</v>
+        <v>0.01403104045805537</v>
       </c>
       <c r="D36">
-        <v>0.005606264158451056</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02127631614409538</v>
+      </c>
+      <c r="E36">
+        <v>0.05619333972736094</v>
+      </c>
+      <c r="F36">
+        <v>-0.06389904783986877</v>
+      </c>
+      <c r="G36">
+        <v>0.04856260302914948</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02922571043056081</v>
+        <v>-0.02272549578628378</v>
       </c>
       <c r="C38">
-        <v>-0.03020731481681925</v>
+        <v>0.02381544060474736</v>
       </c>
       <c r="D38">
-        <v>0.01515319030964206</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01876718339306979</v>
+      </c>
+      <c r="E38">
+        <v>0.04777430813036464</v>
+      </c>
+      <c r="F38">
+        <v>-0.05158391124765579</v>
+      </c>
+      <c r="G38">
+        <v>0.03269801660579055</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04478678923219719</v>
+        <v>-0.03865460704743694</v>
       </c>
       <c r="C39">
-        <v>-0.06684339415140982</v>
+        <v>0.06522281039023427</v>
       </c>
       <c r="D39">
-        <v>-0.01339546238918816</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.0476362279954323</v>
+      </c>
+      <c r="E39">
+        <v>0.04472107238957394</v>
+      </c>
+      <c r="F39">
+        <v>-0.08578886592453069</v>
+      </c>
+      <c r="G39">
+        <v>0.03806913577675183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01253796843853936</v>
+        <v>-0.01271368515381319</v>
       </c>
       <c r="C40">
-        <v>-0.0521412994607162</v>
+        <v>0.03800126633935595</v>
       </c>
       <c r="D40">
-        <v>-0.01572860867512412</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.02789346296664603</v>
+      </c>
+      <c r="E40">
+        <v>0.08133850093679436</v>
+      </c>
+      <c r="F40">
+        <v>-0.05656256848624339</v>
+      </c>
+      <c r="G40">
+        <v>0.08812333586258349</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02221466824005935</v>
+        <v>-0.01908250326736069</v>
       </c>
       <c r="C41">
-        <v>-0.01525057000071907</v>
+        <v>0.01098219458961269</v>
       </c>
       <c r="D41">
-        <v>-0.001902648006405547</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01452519557325609</v>
+      </c>
+      <c r="E41">
+        <v>0.05740174671814786</v>
+      </c>
+      <c r="F41">
+        <v>-0.05870222807712291</v>
+      </c>
+      <c r="G41">
+        <v>0.04059822790892844</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.0395126793262645</v>
+        <v>-0.02897030024448112</v>
       </c>
       <c r="C43">
-        <v>-0.03610338267499795</v>
+        <v>0.02576524788715626</v>
       </c>
       <c r="D43">
-        <v>-0.02827574035806573</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04131231205606918</v>
+      </c>
+      <c r="E43">
+        <v>0.07285060408441431</v>
+      </c>
+      <c r="F43">
+        <v>-0.06004124366139089</v>
+      </c>
+      <c r="G43">
+        <v>0.06523299603522804</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01225555128315723</v>
+        <v>-0.01348222152336643</v>
       </c>
       <c r="C44">
-        <v>-0.06874484517927172</v>
+        <v>0.0491062058633921</v>
       </c>
       <c r="D44">
-        <v>-0.007953637422560516</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03134462462328871</v>
+      </c>
+      <c r="E44">
+        <v>0.08655220052884686</v>
+      </c>
+      <c r="F44">
+        <v>-0.06977856402694488</v>
+      </c>
+      <c r="G44">
+        <v>0.03022994435093204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.007106839782304725</v>
+        <v>-0.007978191232332801</v>
       </c>
       <c r="C46">
-        <v>-0.03009152969486127</v>
+        <v>0.03016536331774677</v>
       </c>
       <c r="D46">
-        <v>0.01950124834289911</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.009295210821332524</v>
+      </c>
+      <c r="E46">
+        <v>0.054675682642082</v>
+      </c>
+      <c r="F46">
+        <v>-0.09617806899521587</v>
+      </c>
+      <c r="G46">
+        <v>0.06114078094536704</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08353263820492417</v>
+        <v>-0.08746677264249829</v>
       </c>
       <c r="C47">
-        <v>-0.07283389782673143</v>
+        <v>0.0828502707903567</v>
       </c>
       <c r="D47">
-        <v>0.02702027767649735</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02206471578634417</v>
+      </c>
+      <c r="E47">
+        <v>0.06716778201782246</v>
+      </c>
+      <c r="F47">
+        <v>-0.0430761619968264</v>
+      </c>
+      <c r="G47">
+        <v>0.07726243329384699</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01827404018616294</v>
+        <v>-0.01618979125429965</v>
       </c>
       <c r="C48">
-        <v>-0.01633841619056694</v>
+        <v>0.01711801010260228</v>
       </c>
       <c r="D48">
-        <v>0.01812758811468267</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.009392600027252127</v>
+      </c>
+      <c r="E48">
+        <v>0.06630043975702045</v>
+      </c>
+      <c r="F48">
+        <v>-0.08145502187385405</v>
+      </c>
+      <c r="G48">
+        <v>0.05634082594992867</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08023412417982997</v>
+        <v>-0.06979109294568273</v>
       </c>
       <c r="C50">
-        <v>-0.0837794132946903</v>
+        <v>0.07692847196090755</v>
       </c>
       <c r="D50">
-        <v>0.02825704801879385</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.007812920942350756</v>
+      </c>
+      <c r="E50">
+        <v>0.07420294875021519</v>
+      </c>
+      <c r="F50">
+        <v>-0.02129266375906964</v>
+      </c>
+      <c r="G50">
+        <v>0.09361836303344219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01450087392975167</v>
+        <v>-0.008979043982470835</v>
       </c>
       <c r="C51">
-        <v>-0.05034336583562418</v>
+        <v>0.03254029665647881</v>
       </c>
       <c r="D51">
-        <v>-0.02962954221547437</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05203053034469422</v>
+      </c>
+      <c r="E51">
+        <v>0.04757355410905818</v>
+      </c>
+      <c r="F51">
+        <v>-0.08114898018802545</v>
+      </c>
+      <c r="G51">
+        <v>0.03537491456310892</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08244607862025288</v>
+        <v>-0.09458438998318308</v>
       </c>
       <c r="C53">
-        <v>-0.07835905837611556</v>
+        <v>0.08785548633722327</v>
       </c>
       <c r="D53">
-        <v>0.05063536867116036</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05507211224818379</v>
+      </c>
+      <c r="E53">
+        <v>0.06098375421026635</v>
+      </c>
+      <c r="F53">
+        <v>-0.04051813181833418</v>
+      </c>
+      <c r="G53">
+        <v>0.07834883254512827</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03242658425542502</v>
+        <v>-0.02702097359920934</v>
       </c>
       <c r="C54">
-        <v>-0.0383542920917702</v>
+        <v>0.03279766364506963</v>
       </c>
       <c r="D54">
-        <v>0.003015502227721881</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02396641611442987</v>
+      </c>
+      <c r="E54">
+        <v>0.05442227673096268</v>
+      </c>
+      <c r="F54">
+        <v>-0.08559247483429416</v>
+      </c>
+      <c r="G54">
+        <v>0.06153714076758324</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07552997698002058</v>
+        <v>-0.0858332717606449</v>
       </c>
       <c r="C55">
-        <v>-0.05877017355576306</v>
+        <v>0.07084495975914101</v>
       </c>
       <c r="D55">
-        <v>0.05469339728128729</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05767475840755571</v>
+      </c>
+      <c r="E55">
+        <v>0.04391752958588339</v>
+      </c>
+      <c r="F55">
+        <v>-0.02217245517907266</v>
+      </c>
+      <c r="G55">
+        <v>0.05958602349903448</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1466308842016315</v>
+        <v>-0.1483753006823074</v>
       </c>
       <c r="C56">
-        <v>-0.0944388188866752</v>
+        <v>0.1080088836266204</v>
       </c>
       <c r="D56">
-        <v>0.04692728878042329</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05452349471392721</v>
+      </c>
+      <c r="E56">
+        <v>0.04199801102118208</v>
+      </c>
+      <c r="F56">
+        <v>0.002686010850095861</v>
+      </c>
+      <c r="G56">
+        <v>0.04174531536651584</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04626657112766559</v>
+        <v>-0.02775228075927832</v>
       </c>
       <c r="C58">
-        <v>-0.02853188058625575</v>
+        <v>0.02591520718933027</v>
       </c>
       <c r="D58">
-        <v>-0.7370694593064696</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3822047628421797</v>
+      </c>
+      <c r="E58">
+        <v>0.6636043013453463</v>
+      </c>
+      <c r="F58">
+        <v>0.4815433658824466</v>
+      </c>
+      <c r="G58">
+        <v>-0.318804444716236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1352557089206316</v>
+        <v>-0.1476329569320579</v>
       </c>
       <c r="C59">
-        <v>0.1955092357911101</v>
+        <v>-0.1858881554851289</v>
       </c>
       <c r="D59">
-        <v>-0.02531432440263456</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02631145335775963</v>
+      </c>
+      <c r="E59">
+        <v>0.02812435023712468</v>
+      </c>
+      <c r="F59">
+        <v>-0.02878439567534623</v>
+      </c>
+      <c r="G59">
+        <v>-0.02031770987022783</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3078161329116702</v>
+        <v>-0.2786831907761284</v>
       </c>
       <c r="C60">
-        <v>-0.1081613269456239</v>
+        <v>0.1084839489568179</v>
       </c>
       <c r="D60">
-        <v>-0.1454307984454792</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2620572243495701</v>
+      </c>
+      <c r="E60">
+        <v>-0.2416496967439463</v>
+      </c>
+      <c r="F60">
+        <v>0.07586304896378709</v>
+      </c>
+      <c r="G60">
+        <v>0.03786711094345059</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04273895198435999</v>
+        <v>-0.03989575512175911</v>
       </c>
       <c r="C61">
-        <v>-0.06474430851123962</v>
+        <v>0.06131621295463878</v>
       </c>
       <c r="D61">
-        <v>-0.009565009027900973</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0390754757549474</v>
+      </c>
+      <c r="E61">
+        <v>0.04768048376554224</v>
+      </c>
+      <c r="F61">
+        <v>-0.06833782317229109</v>
+      </c>
+      <c r="G61">
+        <v>0.05677096328065037</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01534648525118363</v>
+        <v>-0.01439631473821746</v>
       </c>
       <c r="C63">
-        <v>-0.03549838713786287</v>
+        <v>0.03234949677799979</v>
       </c>
       <c r="D63">
-        <v>0.01458380895291267</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01515240780642369</v>
+      </c>
+      <c r="E63">
+        <v>0.05899015349584703</v>
+      </c>
+      <c r="F63">
+        <v>-0.05386639889567955</v>
+      </c>
+      <c r="G63">
+        <v>0.06506515913057873</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04902367726258545</v>
+        <v>-0.05449389279567696</v>
       </c>
       <c r="C64">
-        <v>-0.04844871399283965</v>
+        <v>0.05854483441695551</v>
       </c>
       <c r="D64">
-        <v>0.002358960780242047</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.003523307780606861</v>
+      </c>
+      <c r="E64">
+        <v>0.03465754118548582</v>
+      </c>
+      <c r="F64">
+        <v>-0.07219147311216695</v>
+      </c>
+      <c r="G64">
+        <v>0.04948032450542457</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08261068750289179</v>
+        <v>-0.06674131203180539</v>
       </c>
       <c r="C65">
-        <v>-0.02914493567557534</v>
+        <v>0.02838941850913134</v>
       </c>
       <c r="D65">
-        <v>-0.05883111951731228</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08561878520594936</v>
+      </c>
+      <c r="E65">
+        <v>0.05400778543193988</v>
+      </c>
+      <c r="F65">
+        <v>-0.01081270233458573</v>
+      </c>
+      <c r="G65">
+        <v>0.02013284470111132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.05986150589421442</v>
+        <v>-0.04994517385925594</v>
       </c>
       <c r="C66">
-        <v>-0.09223936382126563</v>
+        <v>0.08400502124175696</v>
       </c>
       <c r="D66">
-        <v>-0.03268821152465384</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07225012396647461</v>
+      </c>
+      <c r="E66">
+        <v>0.05296672100289009</v>
+      </c>
+      <c r="F66">
+        <v>-0.08249365221138945</v>
+      </c>
+      <c r="G66">
+        <v>0.05514494518795386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05098213164285089</v>
+        <v>-0.0444752071262003</v>
       </c>
       <c r="C67">
-        <v>-0.032274700552573</v>
+        <v>0.02944655012893263</v>
       </c>
       <c r="D67">
-        <v>0.02144324428501704</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.003661276388660413</v>
+      </c>
+      <c r="E67">
+        <v>0.0254822599083155</v>
+      </c>
+      <c r="F67">
+        <v>-0.03747078675777656</v>
+      </c>
+      <c r="G67">
+        <v>0.02864941654051455</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1341224691522574</v>
+        <v>-0.1557448347799308</v>
       </c>
       <c r="C68">
-        <v>0.2774345411714322</v>
+        <v>-0.2419215376829777</v>
       </c>
       <c r="D68">
-        <v>0.004604861735459908</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01475408490824288</v>
+      </c>
+      <c r="E68">
+        <v>0.03966085617963459</v>
+      </c>
+      <c r="F68">
+        <v>-0.01125543372949947</v>
+      </c>
+      <c r="G68">
+        <v>0.02989411959902151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09053025560128235</v>
+        <v>-0.08615434500683913</v>
       </c>
       <c r="C69">
-        <v>-0.07346714659237868</v>
+        <v>0.09040075927964969</v>
       </c>
       <c r="D69">
-        <v>0.04260369143186619</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01311485305441555</v>
+      </c>
+      <c r="E69">
+        <v>0.05260779181804703</v>
+      </c>
+      <c r="F69">
+        <v>-0.0702856343198157</v>
+      </c>
+      <c r="G69">
+        <v>0.06905291688440181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.122185937077503</v>
+        <v>-0.1478973435788672</v>
       </c>
       <c r="C71">
-        <v>0.2496486876569981</v>
+        <v>-0.2370124610551473</v>
       </c>
       <c r="D71">
-        <v>-0.01881430424978756</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.000977507591743495</v>
+      </c>
+      <c r="E71">
+        <v>0.06080399424152216</v>
+      </c>
+      <c r="F71">
+        <v>-0.02993230998757979</v>
+      </c>
+      <c r="G71">
+        <v>0.05834024368406698</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09048215599140806</v>
+        <v>-0.09897693403864127</v>
       </c>
       <c r="C72">
-        <v>-0.05857784922968629</v>
+        <v>0.05979848356733047</v>
       </c>
       <c r="D72">
-        <v>-0.001906238899256912</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02587501083156994</v>
+      </c>
+      <c r="E72">
+        <v>0.02525545462132838</v>
+      </c>
+      <c r="F72">
+        <v>-0.04733720519473068</v>
+      </c>
+      <c r="G72">
+        <v>0.06416895891337462</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.40372420364688</v>
+        <v>-0.3416196754512151</v>
       </c>
       <c r="C73">
-        <v>-0.05307704842676111</v>
+        <v>0.07425514919581019</v>
       </c>
       <c r="D73">
-        <v>-0.3563356571563798</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5179032411473049</v>
+      </c>
+      <c r="E73">
+        <v>-0.4413534010459707</v>
+      </c>
+      <c r="F73">
+        <v>0.2306442993322485</v>
+      </c>
+      <c r="G73">
+        <v>0.03002054930161528</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.103719518131077</v>
+        <v>-0.1088228372096722</v>
       </c>
       <c r="C74">
-        <v>-0.09676472953350841</v>
+        <v>0.09647201284406241</v>
       </c>
       <c r="D74">
-        <v>0.02586402651576763</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04340536094557965</v>
+      </c>
+      <c r="E74">
+        <v>0.06257896044229437</v>
+      </c>
+      <c r="F74">
+        <v>0.00199686710564953</v>
+      </c>
+      <c r="G74">
+        <v>0.06703348031146825</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2523963778939559</v>
+        <v>-0.2563991833315042</v>
       </c>
       <c r="C75">
-        <v>-0.1055703971404048</v>
+        <v>0.1337375323090277</v>
       </c>
       <c r="D75">
-        <v>0.1129260006598879</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1488002249820388</v>
+      </c>
+      <c r="E75">
+        <v>0.04433879061641109</v>
+      </c>
+      <c r="F75">
+        <v>0.04499628853641</v>
+      </c>
+      <c r="G75">
+        <v>0.01038713821502926</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1125139811779878</v>
+        <v>-0.126521782774461</v>
       </c>
       <c r="C76">
-        <v>-0.08337361985687743</v>
+        <v>0.09582241980504577</v>
       </c>
       <c r="D76">
-        <v>0.05524328988773942</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07390141301790699</v>
+      </c>
+      <c r="E76">
+        <v>0.06759326784754316</v>
+      </c>
+      <c r="F76">
+        <v>-0.02046472662058944</v>
+      </c>
+      <c r="G76">
+        <v>0.05578712348639857</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07612936890376874</v>
+        <v>-0.06200379372871868</v>
       </c>
       <c r="C77">
-        <v>-0.05646563826158815</v>
+        <v>0.06526802899322288</v>
       </c>
       <c r="D77">
-        <v>-0.04947196404889108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05224614177006597</v>
+      </c>
+      <c r="E77">
+        <v>0.09807493419992482</v>
+      </c>
+      <c r="F77">
+        <v>-0.1578852797273073</v>
+      </c>
+      <c r="G77">
+        <v>-0.1075754043294339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04767282246161555</v>
+        <v>-0.0441353940126257</v>
       </c>
       <c r="C78">
-        <v>-0.04855662037117928</v>
+        <v>0.05734084230278405</v>
       </c>
       <c r="D78">
-        <v>-0.01661509444497035</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05737241274806074</v>
+      </c>
+      <c r="E78">
+        <v>0.05466455365297734</v>
+      </c>
+      <c r="F78">
+        <v>-0.07638887962136968</v>
+      </c>
+      <c r="G78">
+        <v>0.04838447868970307</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02928973478125713</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04576511918226514</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.07451346483496549</v>
+      </c>
+      <c r="E79">
+        <v>0.05996452748638289</v>
+      </c>
+      <c r="F79">
+        <v>0.01142093232369464</v>
+      </c>
+      <c r="G79">
+        <v>0.06114651004259052</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03838214605383834</v>
+        <v>-0.02974382999076614</v>
       </c>
       <c r="C80">
-        <v>-0.05065302611600383</v>
+        <v>0.05152167200343166</v>
       </c>
       <c r="D80">
-        <v>-0.0222903798834869</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03684073383329219</v>
+      </c>
+      <c r="E80">
+        <v>0.01866700364906045</v>
+      </c>
+      <c r="F80">
+        <v>-0.04690290110203738</v>
+      </c>
+      <c r="G80">
+        <v>-0.02310727466219325</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1379793181113894</v>
+        <v>-0.1380330983727874</v>
       </c>
       <c r="C81">
-        <v>-0.07741699886746395</v>
+        <v>0.09548032956132683</v>
       </c>
       <c r="D81">
-        <v>0.07877682832027372</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1186627192325348</v>
+      </c>
+      <c r="E81">
+        <v>0.0684408681537769</v>
+      </c>
+      <c r="F81">
+        <v>0.02697530705068048</v>
+      </c>
+      <c r="G81">
+        <v>0.02178236043731745</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1737968217404612</v>
+        <v>-0.2108434193324911</v>
       </c>
       <c r="C82">
-        <v>-0.0949934376047043</v>
+        <v>0.158519836097342</v>
       </c>
       <c r="D82">
-        <v>0.1768999834402411</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2465879881617526</v>
+      </c>
+      <c r="E82">
+        <v>-0.02013954319848019</v>
+      </c>
+      <c r="F82">
+        <v>-0.05368368119406989</v>
+      </c>
+      <c r="G82">
+        <v>0.04519355532356281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03931688415605634</v>
+        <v>-0.02687121470860597</v>
       </c>
       <c r="C83">
-        <v>-0.02980911123600938</v>
+        <v>0.04279247936987806</v>
       </c>
       <c r="D83">
-        <v>-0.02839325498152453</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.02830274014973415</v>
+      </c>
+      <c r="E83">
+        <v>0.02407324800353092</v>
+      </c>
+      <c r="F83">
+        <v>-0.04603257962076617</v>
+      </c>
+      <c r="G83">
+        <v>-0.002226849782413245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-8.105337120091142e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0007709786153765469</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001190885033005969</v>
+      </c>
+      <c r="E84">
+        <v>0.000767246146550677</v>
+      </c>
+      <c r="F84">
+        <v>-0.001074326572614284</v>
+      </c>
+      <c r="G84">
+        <v>0.0006004134206616625</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2197585913949023</v>
+        <v>-0.202458285896352</v>
       </c>
       <c r="C85">
-        <v>-0.1018750143949685</v>
+        <v>0.1170416694185576</v>
       </c>
       <c r="D85">
-        <v>0.1456386875608345</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1151448718560868</v>
+      </c>
+      <c r="E85">
+        <v>-0.02558405998857198</v>
+      </c>
+      <c r="F85">
+        <v>0.09215319357352632</v>
+      </c>
+      <c r="G85">
+        <v>0.05739254413795139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.006029052431386427</v>
+        <v>-0.008492610203886508</v>
       </c>
       <c r="C86">
-        <v>-0.0279375280637061</v>
+        <v>0.02050578620916246</v>
       </c>
       <c r="D86">
-        <v>-0.0434211498525256</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05689288041891079</v>
+      </c>
+      <c r="E86">
+        <v>0.07232122467509142</v>
+      </c>
+      <c r="F86">
+        <v>-0.1146849757123023</v>
+      </c>
+      <c r="G86">
+        <v>0.05500555662275884</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02392853498940764</v>
+        <v>-0.02393510281447466</v>
       </c>
       <c r="C87">
-        <v>-0.007562363094184389</v>
+        <v>0.0135724404043311</v>
       </c>
       <c r="D87">
-        <v>-0.08666191081002209</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07884996816038767</v>
+      </c>
+      <c r="E87">
+        <v>0.1254921400714597</v>
+      </c>
+      <c r="F87">
+        <v>-0.08357233942477291</v>
+      </c>
+      <c r="G87">
+        <v>-1.631908224761425e-05</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1043461150749902</v>
+        <v>-0.09063773293151636</v>
       </c>
       <c r="C88">
-        <v>-0.07531729895596795</v>
+        <v>0.06392314661637898</v>
       </c>
       <c r="D88">
-        <v>0.02492786798973252</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.003548356264199777</v>
+      </c>
+      <c r="E88">
+        <v>0.0490745939912513</v>
+      </c>
+      <c r="F88">
+        <v>-0.07723178906728155</v>
+      </c>
+      <c r="G88">
+        <v>0.021721005902708</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1913642292324569</v>
+        <v>-0.225311329443011</v>
       </c>
       <c r="C89">
-        <v>0.3719014528119158</v>
+        <v>-0.375305146816679</v>
       </c>
       <c r="D89">
-        <v>0.02870024884744168</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02542919171640618</v>
+      </c>
+      <c r="E89">
+        <v>0.06550428233460048</v>
+      </c>
+      <c r="F89">
+        <v>-0.09143696574261695</v>
+      </c>
+      <c r="G89">
+        <v>-0.02492533631333636</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.183342620679682</v>
+        <v>-0.204738928997263</v>
       </c>
       <c r="C90">
-        <v>0.3324615203066349</v>
+        <v>-0.3081675110256724</v>
       </c>
       <c r="D90">
-        <v>0.03124830472784874</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02654092836502375</v>
+      </c>
+      <c r="E90">
+        <v>0.06623023899091564</v>
+      </c>
+      <c r="F90">
+        <v>-0.03940589579694879</v>
+      </c>
+      <c r="G90">
+        <v>0.005346805193596003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1882949493800141</v>
+        <v>-0.1853588732605702</v>
       </c>
       <c r="C91">
-        <v>-0.1282400236041923</v>
+        <v>0.1453599109622878</v>
       </c>
       <c r="D91">
-        <v>0.1047700448880445</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1262381003560261</v>
+      </c>
+      <c r="E91">
+        <v>0.04747433612807388</v>
+      </c>
+      <c r="F91">
+        <v>0.01206336849664229</v>
+      </c>
+      <c r="G91">
+        <v>0.0252165348131553</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1670395812053807</v>
+        <v>-0.1857421248935056</v>
       </c>
       <c r="C92">
-        <v>0.2805733548387356</v>
+        <v>-0.2867504749290178</v>
       </c>
       <c r="D92">
-        <v>0.02386872964997205</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02917831285241927</v>
+      </c>
+      <c r="E92">
+        <v>0.07018492592115107</v>
+      </c>
+      <c r="F92">
+        <v>-0.07470385167353895</v>
+      </c>
+      <c r="G92">
+        <v>0.01660899628641732</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2054262131248359</v>
+        <v>-0.2272692543260882</v>
       </c>
       <c r="C93">
-        <v>0.3351719137681989</v>
+        <v>-0.3162917704689576</v>
       </c>
       <c r="D93">
-        <v>0.03010826015227974</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02191935595609228</v>
+      </c>
+      <c r="E93">
+        <v>0.04142109542271158</v>
+      </c>
+      <c r="F93">
+        <v>-0.0191717338544753</v>
+      </c>
+      <c r="G93">
+        <v>0.03734630537691225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3300038640737972</v>
+        <v>-0.3341923064927388</v>
       </c>
       <c r="C94">
-        <v>-0.1584013054919014</v>
+        <v>0.1941565094250876</v>
       </c>
       <c r="D94">
-        <v>0.3398909665485035</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4317711134001454</v>
+      </c>
+      <c r="E94">
+        <v>0.00732653150992844</v>
+      </c>
+      <c r="F94">
+        <v>0.2465397499564093</v>
+      </c>
+      <c r="G94">
+        <v>-0.4213892710690312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1131013477741421</v>
+        <v>-0.08380688879420083</v>
       </c>
       <c r="C95">
-        <v>-0.07257903723845599</v>
+        <v>0.06505656039661543</v>
       </c>
       <c r="D95">
-        <v>-0.1344414894483877</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1812519126764628</v>
+      </c>
+      <c r="E95">
+        <v>-0.09565027868495486</v>
+      </c>
+      <c r="F95">
+        <v>-0.5695372430673951</v>
+      </c>
+      <c r="G95">
+        <v>-0.707042371779378</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1956109356539059</v>
+        <v>-0.1870617236655676</v>
       </c>
       <c r="C98">
-        <v>-0.0229737650141995</v>
+        <v>0.0479838853637153</v>
       </c>
       <c r="D98">
-        <v>-0.1242351226145345</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1991433600547457</v>
+      </c>
+      <c r="E98">
+        <v>-0.1332528860617304</v>
+      </c>
+      <c r="F98">
+        <v>0.06230643352133811</v>
+      </c>
+      <c r="G98">
+        <v>0.08480449452288139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.005919778494773027</v>
+        <v>-0.004503452273645299</v>
       </c>
       <c r="C101">
-        <v>-0.03461956581219559</v>
+        <v>0.02997944260940095</v>
       </c>
       <c r="D101">
-        <v>0.01730028877023925</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01581877618189087</v>
+      </c>
+      <c r="E101">
+        <v>0.04716887404343786</v>
+      </c>
+      <c r="F101">
+        <v>-0.08257960920576528</v>
+      </c>
+      <c r="G101">
+        <v>0.06315832044312991</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1244990928186063</v>
+        <v>-0.1257013319450475</v>
       </c>
       <c r="C102">
-        <v>-0.07041123640427818</v>
+        <v>0.1012468934916102</v>
       </c>
       <c r="D102">
-        <v>0.04117695062944588</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05312109062015639</v>
+      </c>
+      <c r="E102">
+        <v>-0.01190631407904438</v>
+      </c>
+      <c r="F102">
+        <v>-0.01798089657957653</v>
+      </c>
+      <c r="G102">
+        <v>-0.0002511907088343679</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
